--- a/flask/sub2/hasil_prediktor.xlsx
+++ b/flask/sub2/hasil_prediktor.xlsx
@@ -348,2942 +348,2942 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>-4.754677772521973</v>
+        <v>-4.751756191253662</v>
       </c>
       <c r="B1">
-        <v>130.1015930175781</v>
+        <v>130.1003875732422</v>
       </c>
       <c r="C1">
-        <v>180.8122100830078</v>
+        <v>176.6512298583984</v>
       </c>
       <c r="D1">
-        <v>4.133389472961426</v>
+        <v>4.098026275634766</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-4.754835605621338</v>
+        <v>-4.751883029937744</v>
       </c>
       <c r="B2">
-        <v>130.1015930175781</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C2">
-        <v>180.8157196044922</v>
+        <v>176.6487731933594</v>
       </c>
       <c r="D2">
-        <v>4.132928848266602</v>
+        <v>4.097101211547852</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>-4.755003929138184</v>
+        <v>-4.752013683319092</v>
       </c>
       <c r="B3">
-        <v>130.1015930175781</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C3">
-        <v>180.8200378417969</v>
+        <v>176.6453857421875</v>
       </c>
       <c r="D3">
-        <v>4.132384300231934</v>
+        <v>4.096147537231445</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-4.75517749786377</v>
+        <v>-4.752147674560547</v>
       </c>
       <c r="B4">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C4">
-        <v>180.8237915039062</v>
+        <v>176.6416778564453</v>
       </c>
       <c r="D4">
-        <v>4.131829738616943</v>
+        <v>4.095169544219971</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-4.755309581756592</v>
+        <v>-4.752261638641357</v>
       </c>
       <c r="B5">
-        <v>130.1015930175781</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C5">
-        <v>180.8194427490234</v>
+        <v>176.6367797851562</v>
       </c>
       <c r="D5">
-        <v>4.131631851196289</v>
+        <v>4.094366073608398</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-4.755467891693115</v>
+        <v>-4.752388477325439</v>
       </c>
       <c r="B6">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C6">
-        <v>180.8230590820312</v>
+        <v>176.6343383789062</v>
       </c>
       <c r="D6">
-        <v>4.131171226501465</v>
+        <v>4.093440532684326</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>-4.755636692047119</v>
+        <v>-4.752519607543945</v>
       </c>
       <c r="B7">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C7">
-        <v>180.8274993896484</v>
+        <v>176.6309967041016</v>
       </c>
       <c r="D7">
-        <v>4.13062572479248</v>
+        <v>4.092486381530762</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>-4.755810737609863</v>
+        <v>-4.752654075622559</v>
       </c>
       <c r="B8">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C8">
-        <v>180.8314056396484</v>
+        <v>176.6272583007812</v>
       </c>
       <c r="D8">
-        <v>4.13007116317749</v>
+        <v>4.091507911682129</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>-4.755987167358398</v>
+        <v>-4.752790927886963</v>
       </c>
       <c r="B9">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C9">
-        <v>180.8346252441406</v>
+        <v>176.6233062744141</v>
       </c>
       <c r="D9">
-        <v>4.129528999328613</v>
+        <v>4.090509414672852</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>-4.756123542785645</v>
+        <v>-4.752912044525146</v>
       </c>
       <c r="B10">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C10">
-        <v>180.8294067382812</v>
+        <v>176.6182556152344</v>
       </c>
       <c r="D10">
-        <v>4.12937068939209</v>
+        <v>4.089656829833984</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>-4.756281852722168</v>
+        <v>-4.753039360046387</v>
       </c>
       <c r="B11">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C11">
-        <v>180.8332061767578</v>
+        <v>176.6158447265625</v>
       </c>
       <c r="D11">
-        <v>4.128910064697266</v>
+        <v>4.088730812072754</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>-4.756450653076172</v>
+        <v>-4.753170490264893</v>
       </c>
       <c r="B12">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C12">
-        <v>180.8378143310547</v>
+        <v>176.6124725341797</v>
       </c>
       <c r="D12">
-        <v>4.128364086151123</v>
+        <v>4.087776660919189</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>-4.756580352783203</v>
+        <v>-4.753281593322754</v>
       </c>
       <c r="B13">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C13">
-        <v>180.8343505859375</v>
+        <v>176.6078186035156</v>
       </c>
       <c r="D13">
-        <v>4.128154754638672</v>
+        <v>4.086991310119629</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>-4.756734371185303</v>
+        <v>-4.753401279449463</v>
       </c>
       <c r="B14">
-        <v>130.1016082763672</v>
+        <v>130.1003723144531</v>
       </c>
       <c r="C14">
-        <v>180.8391723632812</v>
+        <v>176.6055908203125</v>
       </c>
       <c r="D14">
-        <v>4.1276535987854</v>
+        <v>4.086113452911377</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>-4.756903648376465</v>
+        <v>-4.753532409667969</v>
       </c>
       <c r="B15">
-        <v>130.1016082763672</v>
+        <v>130.1003570556641</v>
       </c>
       <c r="C15">
-        <v>180.8438720703125</v>
+        <v>176.6022186279297</v>
       </c>
       <c r="D15">
-        <v>4.1271071434021</v>
+        <v>4.085158348083496</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>-4.757078170776367</v>
+        <v>-4.753666877746582</v>
       </c>
       <c r="B16">
-        <v>130.1016082763672</v>
+        <v>130.1003570556641</v>
       </c>
       <c r="C16">
-        <v>180.8480224609375</v>
+        <v>176.5985565185547</v>
       </c>
       <c r="D16">
-        <v>4.126552581787109</v>
+        <v>4.084178924560547</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>-4.757210254669189</v>
+        <v>-4.753780841827393</v>
       </c>
       <c r="B17">
-        <v>130.1016082763672</v>
+        <v>130.1003570556641</v>
       </c>
       <c r="C17">
-        <v>180.8439483642578</v>
+        <v>176.5936584472656</v>
       </c>
       <c r="D17">
-        <v>4.126355171203613</v>
+        <v>4.0833740234375</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>-4.757369041442871</v>
+        <v>-4.753908157348633</v>
       </c>
       <c r="B18">
-        <v>130.1016082763672</v>
+        <v>130.1003570556641</v>
       </c>
       <c r="C18">
-        <v>180.8479461669922</v>
+        <v>176.5912475585938</v>
       </c>
       <c r="D18">
-        <v>4.125894069671631</v>
+        <v>4.082447528839111</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>-4.757538318634033</v>
+        <v>-4.754039287567139</v>
       </c>
       <c r="B19">
-        <v>130.1016082763672</v>
+        <v>130.1003570556641</v>
       </c>
       <c r="C19">
-        <v>180.852783203125</v>
+        <v>176.5879058837891</v>
       </c>
       <c r="D19">
-        <v>4.125347137451172</v>
+        <v>4.081491947174072</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>-4.757668018341064</v>
+        <v>-4.754150390625</v>
       </c>
       <c r="B20">
-        <v>130.1016082763672</v>
+        <v>130.1003570556641</v>
       </c>
       <c r="C20">
-        <v>180.8494873046875</v>
+        <v>176.583251953125</v>
       </c>
       <c r="D20">
-        <v>4.125137805938721</v>
+        <v>4.080706596374512</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>-4.757822036743164</v>
+        <v>-4.754270553588867</v>
       </c>
       <c r="B21">
-        <v>130.1016082763672</v>
+        <v>130.1003570556641</v>
       </c>
       <c r="C21">
-        <v>180.8545074462891</v>
+        <v>176.5810241699219</v>
       </c>
       <c r="D21">
-        <v>4.124636650085449</v>
+        <v>4.079828262329102</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>-4.757991790771484</v>
+        <v>-4.754401683807373</v>
       </c>
       <c r="B22">
-        <v>130.1016082763672</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C22">
-        <v>180.8594360351562</v>
+        <v>176.5776977539062</v>
       </c>
       <c r="D22">
-        <v>4.12408971786499</v>
+        <v>4.078872203826904</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>-4.758121490478516</v>
+        <v>-4.754512786865234</v>
       </c>
       <c r="B23">
-        <v>130.1016082763672</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C23">
-        <v>180.8562164306641</v>
+        <v>176.5730438232422</v>
       </c>
       <c r="D23">
-        <v>4.123880386352539</v>
+        <v>4.078086376190186</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>-4.758275985717773</v>
+        <v>-4.754632949829102</v>
       </c>
       <c r="B24">
-        <v>130.1016082763672</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C24">
-        <v>180.8613128662109</v>
+        <v>176.5708312988281</v>
       </c>
       <c r="D24">
-        <v>4.123378753662109</v>
+        <v>4.077207565307617</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>-4.758400917053223</v>
+        <v>-4.754740715026855</v>
       </c>
       <c r="B25">
-        <v>130.1016082763672</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C25">
-        <v>180.8587036132812</v>
+        <v>176.5665130615234</v>
       </c>
       <c r="D25">
-        <v>4.123177528381348</v>
+        <v>4.076446056365967</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>-4.758553028106689</v>
+        <v>-4.754858016967773</v>
       </c>
       <c r="B26">
-        <v>130.1016082763672</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C26">
-        <v>180.8645782470703</v>
+        <v>176.5645599365234</v>
       </c>
       <c r="D26">
-        <v>4.122663497924805</v>
+        <v>4.075586795806885</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>-4.758718013763428</v>
+        <v>-4.754981517791748</v>
       </c>
       <c r="B27">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C27">
-        <v>180.87060546875</v>
+        <v>176.5614013671875</v>
       </c>
       <c r="D27">
-        <v>4.122076511383057</v>
+        <v>4.074678897857666</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>-4.758848190307617</v>
+        <v>-4.755093097686768</v>
       </c>
       <c r="B28">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C28">
-        <v>180.8674621582031</v>
+        <v>176.5567474365234</v>
       </c>
       <c r="D28">
-        <v>4.121867179870605</v>
+        <v>4.073893070220947</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>-4.759002685546875</v>
+        <v>-4.755213260650635</v>
       </c>
       <c r="B29">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C29">
-        <v>180.8727111816406</v>
+        <v>176.5545501708984</v>
       </c>
       <c r="D29">
-        <v>4.121365070343018</v>
+        <v>4.073013782501221</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>-4.759172439575195</v>
+        <v>-4.755344867706299</v>
       </c>
       <c r="B30">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C30">
-        <v>180.8778991699219</v>
+        <v>176.5512390136719</v>
       </c>
       <c r="D30">
-        <v>4.1208176612854</v>
+        <v>4.072057247161865</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>-4.759302139282227</v>
+        <v>-4.75545597076416</v>
       </c>
       <c r="B31">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C31">
-        <v>180.8748474121094</v>
+        <v>176.5465698242188</v>
       </c>
       <c r="D31">
-        <v>4.120608329772949</v>
+        <v>4.071270942687988</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>-4.759457588195801</v>
+        <v>-4.755576133728027</v>
       </c>
       <c r="B32">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C32">
-        <v>180.8801727294922</v>
+        <v>176.5443878173828</v>
       </c>
       <c r="D32">
-        <v>4.120106220245361</v>
+        <v>4.070391654968262</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>-4.759582042694092</v>
+        <v>-4.755683898925781</v>
       </c>
       <c r="B33">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C33">
-        <v>180.8777465820312</v>
+        <v>176.5400695800781</v>
       </c>
       <c r="D33">
-        <v>4.1199049949646</v>
+        <v>4.069629669189453</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>-4.759734153747559</v>
+        <v>-4.755801677703857</v>
       </c>
       <c r="B34">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C34">
-        <v>180.8838348388672</v>
+        <v>176.5381317138672</v>
       </c>
       <c r="D34">
-        <v>4.11939001083374</v>
+        <v>4.068769454956055</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>-4.759854793548584</v>
+        <v>-4.75590181350708</v>
       </c>
       <c r="B35">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C35">
-        <v>180.8824005126953</v>
+        <v>176.5339813232422</v>
       </c>
       <c r="D35">
-        <v>4.119149208068848</v>
+        <v>4.068055629730225</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>-4.760007381439209</v>
+        <v>-4.756019592285156</v>
       </c>
       <c r="B36">
-        <v>130.1016235351562</v>
+        <v>130.100341796875</v>
       </c>
       <c r="C36">
-        <v>180.8885040283203</v>
+        <v>176.5320587158203</v>
       </c>
       <c r="D36">
-        <v>4.118634223937988</v>
+        <v>4.067194938659668</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>-4.760128021240234</v>
+        <v>-4.756120204925537</v>
       </c>
       <c r="B37">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C37">
-        <v>180.8871154785156</v>
+        <v>176.5279235839844</v>
       </c>
       <c r="D37">
-        <v>4.118393421173096</v>
+        <v>4.066481590270996</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>-4.760280132293701</v>
+        <v>-4.756237506866455</v>
       </c>
       <c r="B38">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C38">
-        <v>180.8932800292969</v>
+        <v>176.5259857177734</v>
       </c>
       <c r="D38">
-        <v>4.117878437042236</v>
+        <v>4.065620899200439</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>-4.760401248931885</v>
+        <v>-4.756338119506836</v>
       </c>
       <c r="B39">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C39">
-        <v>180.8919219970703</v>
+        <v>176.5218505859375</v>
       </c>
       <c r="D39">
-        <v>4.117637634277344</v>
+        <v>4.064907550811768</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>-4.760553359985352</v>
+        <v>-4.756455421447754</v>
       </c>
       <c r="B40">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C40">
-        <v>180.8981628417969</v>
+        <v>176.5199279785156</v>
       </c>
       <c r="D40">
-        <v>4.117122173309326</v>
+        <v>4.064046382904053</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>-4.760674476623535</v>
+        <v>-4.756556034088135</v>
       </c>
       <c r="B41">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C41">
-        <v>180.8968353271484</v>
+        <v>176.5157775878906</v>
       </c>
       <c r="D41">
-        <v>4.116881370544434</v>
+        <v>4.063332557678223</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>-4.760826587677002</v>
+        <v>-4.756673812866211</v>
       </c>
       <c r="B42">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C42">
-        <v>180.9031219482422</v>
+        <v>176.5138702392578</v>
       </c>
       <c r="D42">
-        <v>4.116365432739258</v>
+        <v>4.062471389770508</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>-4.760947704315186</v>
+        <v>-4.756774425506592</v>
       </c>
       <c r="B43">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C43">
-        <v>180.9018249511719</v>
+        <v>176.5097351074219</v>
       </c>
       <c r="D43">
-        <v>4.116124629974365</v>
+        <v>4.061757564544678</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>-4.761100292205811</v>
+        <v>-4.75689172744751</v>
       </c>
       <c r="B44">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C44">
-        <v>180.9081726074219</v>
+        <v>176.5078277587891</v>
       </c>
       <c r="D44">
-        <v>4.115609169006348</v>
+        <v>4.060896396636963</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>-4.761220932006836</v>
+        <v>-4.756992340087891</v>
       </c>
       <c r="B45">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C45">
-        <v>180.9069213867188</v>
+        <v>176.5036773681641</v>
       </c>
       <c r="D45">
-        <v>4.115367889404297</v>
+        <v>4.060182571411133</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>-4.761328220367432</v>
+        <v>-4.757086277008057</v>
       </c>
       <c r="B46">
-        <v>130.1016235351562</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C46">
-        <v>180.905517578125</v>
+        <v>176.500732421875</v>
       </c>
       <c r="D46">
-        <v>4.115200042724609</v>
+        <v>4.059516906738281</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>-4.761471748352051</v>
+        <v>-4.757193088531494</v>
       </c>
       <c r="B47">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C47">
-        <v>180.9134368896484</v>
+        <v>176.4993591308594</v>
       </c>
       <c r="D47">
-        <v>4.114652156829834</v>
+        <v>4.058728218078613</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>-4.761589527130127</v>
+        <v>-4.757290840148926</v>
       </c>
       <c r="B48">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C48">
-        <v>180.9129180908203</v>
+        <v>176.4954528808594</v>
       </c>
       <c r="D48">
-        <v>4.11439847946167</v>
+        <v>4.058033466339111</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>-4.761738300323486</v>
+        <v>-4.757400989532471</v>
       </c>
       <c r="B49">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C49">
-        <v>180.9203033447266</v>
+        <v>176.4937438964844</v>
       </c>
       <c r="D49">
-        <v>4.113842487335205</v>
+        <v>4.057219982147217</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>-4.76185941696167</v>
+        <v>-4.757501602172852</v>
       </c>
       <c r="B50">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C50">
-        <v>180.9191589355469</v>
+        <v>176.4895935058594</v>
       </c>
       <c r="D50">
-        <v>4.113601207733154</v>
+        <v>4.056506633758545</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>-4.762012004852295</v>
+        <v>-4.757619380950928</v>
       </c>
       <c r="B51">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C51">
-        <v>180.9256591796875</v>
+        <v>176.4877319335938</v>
       </c>
       <c r="D51">
-        <v>4.113085269927979</v>
+        <v>4.055644512176514</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>-4.76213264465332</v>
+        <v>-4.757720470428467</v>
       </c>
       <c r="B52">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C52">
-        <v>180.9245452880859</v>
+        <v>176.4835815429688</v>
       </c>
       <c r="D52">
-        <v>4.112843990325928</v>
+        <v>4.054930210113525</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>-4.762239933013916</v>
+        <v>-4.757814407348633</v>
       </c>
       <c r="B53">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C53">
-        <v>180.9232635498047</v>
+        <v>176.4806365966797</v>
       </c>
       <c r="D53">
-        <v>4.11267614364624</v>
+        <v>4.054263591766357</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>-4.762383937835693</v>
+        <v>-4.757920742034912</v>
       </c>
       <c r="B54">
-        <v>130.1016387939453</v>
+        <v>130.1003265380859</v>
       </c>
       <c r="C54">
-        <v>180.9313507080078</v>
+        <v>176.4792785644531</v>
       </c>
       <c r="D54">
-        <v>4.112127304077148</v>
+        <v>4.053474903106689</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>-4.762502193450928</v>
+        <v>-4.758018970489502</v>
       </c>
       <c r="B55">
-        <v>130.1016387939453</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C55">
-        <v>180.9309692382812</v>
+        <v>176.4753875732422</v>
       </c>
       <c r="D55">
-        <v>4.111873626708984</v>
+        <v>4.052780151367188</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>-4.7626051902771</v>
+        <v>-4.758105278015137</v>
       </c>
       <c r="B56">
-        <v>130.1016387939453</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C56">
-        <v>180.9306640625</v>
+        <v>176.4726257324219</v>
       </c>
       <c r="D56">
-        <v>4.11166524887085</v>
+        <v>4.052162170410156</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>-4.762749195098877</v>
+        <v>-4.758212566375732</v>
       </c>
       <c r="B57">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C57">
-        <v>180.9387969970703</v>
+        <v>176.4712829589844</v>
       </c>
       <c r="D57">
-        <v>4.111116409301758</v>
+        <v>4.05137300491333</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>-4.762867450714111</v>
+        <v>-4.758310317993164</v>
       </c>
       <c r="B58">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C58">
-        <v>180.9384765625</v>
+        <v>176.4673919677734</v>
       </c>
       <c r="D58">
-        <v>4.110862731933594</v>
+        <v>4.05067777633667</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>-4.763016223907471</v>
+        <v>-4.758420467376709</v>
       </c>
       <c r="B59">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C59">
-        <v>180.9461059570312</v>
+        <v>176.4657135009766</v>
       </c>
       <c r="D59">
-        <v>4.110306262969971</v>
+        <v>4.049864292144775</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>-4.763136863708496</v>
+        <v>-4.75852108001709</v>
       </c>
       <c r="B60">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C60">
-        <v>180.9451293945312</v>
+        <v>176.4615631103516</v>
       </c>
       <c r="D60">
-        <v>4.11006498336792</v>
+        <v>4.049149513244629</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>-4.76324462890625</v>
+        <v>-4.758615493774414</v>
       </c>
       <c r="B61">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C61">
-        <v>180.9439849853516</v>
+        <v>176.4586334228516</v>
       </c>
       <c r="D61">
-        <v>4.109896659851074</v>
+        <v>4.048482894897461</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>-4.76334285736084</v>
+        <v>-4.7586989402771</v>
       </c>
       <c r="B62">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C62">
-        <v>180.9443359375</v>
+        <v>176.4562225341797</v>
       </c>
       <c r="D62">
-        <v>4.109695911407471</v>
+        <v>4.047889232635498</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>-4.763484001159668</v>
+        <v>-4.758802890777588</v>
       </c>
       <c r="B63">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C63">
-        <v>180.9532928466797</v>
+        <v>176.4551239013672</v>
       </c>
       <c r="D63">
-        <v>4.109133720397949</v>
+        <v>4.047119140625</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>-4.763598442077637</v>
+        <v>-4.758893489837646</v>
       </c>
       <c r="B64">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C64">
-        <v>180.9539947509766</v>
+        <v>176.451416015625</v>
       </c>
       <c r="D64">
-        <v>4.108840465545654</v>
+        <v>4.046472549438477</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>-4.763701438903809</v>
+        <v>-4.758980274200439</v>
       </c>
       <c r="B65">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C65">
-        <v>180.9538116455078</v>
+        <v>176.4486694335938</v>
       </c>
       <c r="D65">
-        <v>4.10863208770752</v>
+        <v>4.045854091644287</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>-4.763799667358398</v>
+        <v>-4.759063243865967</v>
       </c>
       <c r="B66">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C66">
-        <v>180.9542236328125</v>
+        <v>176.4462585449219</v>
       </c>
       <c r="D66">
-        <v>4.108431339263916</v>
+        <v>4.045260429382324</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>-4.763940811157227</v>
+        <v>-4.759167671203613</v>
       </c>
       <c r="B67">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C67">
-        <v>180.9632568359375</v>
+        <v>176.4451904296875</v>
       </c>
       <c r="D67">
-        <v>4.107868671417236</v>
+        <v>4.044490337371826</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>-4.764055252075195</v>
+        <v>-4.759258270263672</v>
       </c>
       <c r="B68">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C68">
-        <v>180.9640197753906</v>
+        <v>176.4414672851562</v>
       </c>
       <c r="D68">
-        <v>4.107574939727783</v>
+        <v>4.043843269348145</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>-4.764158248901367</v>
+        <v>-4.759344577789307</v>
       </c>
       <c r="B69">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C69">
-        <v>180.9638977050781</v>
+        <v>176.438720703125</v>
       </c>
       <c r="D69">
-        <v>4.107366561889648</v>
+        <v>4.043224811553955</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>-4.764256954193115</v>
+        <v>-4.759428024291992</v>
       </c>
       <c r="B70">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C70">
-        <v>180.9643707275391</v>
+        <v>176.4363098144531</v>
       </c>
       <c r="D70">
-        <v>4.107166290283203</v>
+        <v>4.042630672454834</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>-4.764352321624756</v>
+        <v>-4.759508609771729</v>
       </c>
       <c r="B71">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C71">
-        <v>180.9655151367188</v>
+        <v>176.4341583251953</v>
       </c>
       <c r="D71">
-        <v>4.106952667236328</v>
+        <v>4.042056083679199</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>-4.764489650726318</v>
+        <v>-4.759604930877686</v>
       </c>
       <c r="B72">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C72">
-        <v>180.9755706787109</v>
+        <v>176.4332885742188</v>
       </c>
       <c r="D72">
-        <v>4.106349468231201</v>
+        <v>4.04133415222168</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>-4.764604091644287</v>
+        <v>-4.759696006774902</v>
       </c>
       <c r="B73">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C73">
-        <v>180.9764099121094</v>
+        <v>176.4295806884766</v>
       </c>
       <c r="D73">
-        <v>4.106056213378906</v>
+        <v>4.040687561035156</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>-4.764707565307617</v>
+        <v>-4.759782314300537</v>
       </c>
       <c r="B74">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C74">
-        <v>180.9763641357422</v>
+        <v>176.4268188476562</v>
       </c>
       <c r="D74">
-        <v>4.105847358703613</v>
+        <v>4.040068626403809</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>-4.764805793762207</v>
+        <v>-4.759865760803223</v>
       </c>
       <c r="B75">
-        <v>130.1016540527344</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C75">
-        <v>180.9768981933594</v>
+        <v>176.4244079589844</v>
       </c>
       <c r="D75">
-        <v>4.10564661026001</v>
+        <v>4.039474487304688</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>-4.764901161193848</v>
+        <v>-4.759946346282959</v>
       </c>
       <c r="B76">
-        <v>130.1016540527344</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C76">
-        <v>180.9781036376953</v>
+        <v>176.4222564697266</v>
       </c>
       <c r="D76">
-        <v>4.105432987213135</v>
+        <v>4.038899898529053</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>-4.764992713928223</v>
+        <v>-4.760019779205322</v>
       </c>
       <c r="B77">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C77">
-        <v>180.9802398681641</v>
+        <v>176.4202728271484</v>
       </c>
       <c r="D77">
-        <v>4.105179786682129</v>
+        <v>4.038373470306396</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>-4.765084266662598</v>
+        <v>-4.760092258453369</v>
       </c>
       <c r="B78">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C78">
-        <v>180.9823913574219</v>
+        <v>176.4183044433594</v>
       </c>
       <c r="D78">
-        <v>4.104925632476807</v>
+        <v>4.037847518920898</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>-4.765175819396973</v>
+        <v>-4.760165214538574</v>
       </c>
       <c r="B79">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C79">
-        <v>180.9845428466797</v>
+        <v>176.4163360595703</v>
       </c>
       <c r="D79">
-        <v>4.104672431945801</v>
+        <v>4.037321090698242</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>-4.765267372131348</v>
+        <v>-4.760238170623779</v>
       </c>
       <c r="B80">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C80">
-        <v>180.9867248535156</v>
+        <v>176.4143524169922</v>
       </c>
       <c r="D80">
-        <v>4.104419231414795</v>
+        <v>4.036795139312744</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>-4.76540470123291</v>
+        <v>-4.760334968566895</v>
       </c>
       <c r="B81">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C81">
-        <v>180.9969329833984</v>
+        <v>176.4135284423828</v>
       </c>
       <c r="D81">
-        <v>4.103815078735352</v>
+        <v>4.036072254180908</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>-4.765519142150879</v>
+        <v>-4.760426044464111</v>
       </c>
       <c r="B82">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C82">
-        <v>180.9978942871094</v>
+        <v>176.4098205566406</v>
       </c>
       <c r="D82">
-        <v>4.103521347045898</v>
+        <v>4.035425186157227</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>-4.765623092651367</v>
+        <v>-4.760512828826904</v>
       </c>
       <c r="B83">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C83">
-        <v>180.9979705810547</v>
+        <v>176.4070739746094</v>
       </c>
       <c r="D83">
-        <v>4.103312492370605</v>
+        <v>4.034806728363037</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>-4.765721321105957</v>
+        <v>-4.760595798492432</v>
       </c>
       <c r="B84">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C84">
-        <v>180.9986114501953</v>
+        <v>176.4046630859375</v>
       </c>
       <c r="D84">
-        <v>4.103111743927002</v>
+        <v>4.034212589263916</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>-4.765816688537598</v>
+        <v>-4.760676860809326</v>
       </c>
       <c r="B85">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C85">
-        <v>180.9999389648438</v>
+        <v>176.4025115966797</v>
       </c>
       <c r="D85">
-        <v>4.102897167205811</v>
+        <v>4.033637046813965</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>-4.765908241271973</v>
+        <v>-4.760749816894531</v>
       </c>
       <c r="B86">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C86">
-        <v>181.0021820068359</v>
+        <v>176.4005432128906</v>
       </c>
       <c r="D86">
-        <v>4.102643489837646</v>
+        <v>4.033111095428467</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>-4.766000270843506</v>
+        <v>-4.760822772979736</v>
       </c>
       <c r="B87">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C87">
-        <v>181.0044403076172</v>
+        <v>176.3985748291016</v>
       </c>
       <c r="D87">
-        <v>4.102389812469482</v>
+        <v>4.032584190368652</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>-4.766091823577881</v>
+        <v>-4.760895729064941</v>
       </c>
       <c r="B88">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C88">
-        <v>181.0066833496094</v>
+        <v>176.3966369628906</v>
       </c>
       <c r="D88">
-        <v>4.102136135101318</v>
+        <v>4.032057762145996</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>-4.766160011291504</v>
+        <v>-4.760956764221191</v>
       </c>
       <c r="B89">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C89">
-        <v>181.0049438476562</v>
+        <v>176.3940734863281</v>
       </c>
       <c r="D89">
-        <v>4.102057933807373</v>
+        <v>4.03162956237793</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>-4.766217708587646</v>
+        <v>-4.761009216308594</v>
       </c>
       <c r="B90">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C90">
-        <v>181.0037841796875</v>
+        <v>176.3923797607422</v>
       </c>
       <c r="D90">
-        <v>4.101999282836914</v>
+        <v>4.031261920928955</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>-4.766291618347168</v>
+        <v>-4.761066913604736</v>
       </c>
       <c r="B91">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C91">
-        <v>181.0077362060547</v>
+        <v>176.3916931152344</v>
       </c>
       <c r="D91">
-        <v>4.101743221282959</v>
+        <v>4.030842304229736</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>-4.766374111175537</v>
+        <v>-4.761127948760986</v>
       </c>
       <c r="B92">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C92">
-        <v>181.0118713378906</v>
+        <v>176.3903350830078</v>
       </c>
       <c r="D92">
-        <v>4.1014404296875</v>
+        <v>4.030395984649658</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>-4.766460418701172</v>
+        <v>-4.761192321777344</v>
       </c>
       <c r="B93">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C93">
-        <v>181.0153961181641</v>
+        <v>176.388671875</v>
       </c>
       <c r="D93">
-        <v>4.10114049911499</v>
+        <v>4.029927730560303</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>-4.766549587249756</v>
+        <v>-4.761260986328125</v>
       </c>
       <c r="B94">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C94">
-        <v>181.0181732177734</v>
+        <v>176.3868103027344</v>
       </c>
       <c r="D94">
-        <v>4.100866317749023</v>
+        <v>4.029425621032715</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>-4.766641139984131</v>
+        <v>-4.761334419250488</v>
       </c>
       <c r="B95">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C95">
-        <v>181.0204925537109</v>
+        <v>176.3848419189453</v>
       </c>
       <c r="D95">
-        <v>4.100612640380859</v>
+        <v>4.028899192810059</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>-4.766733169555664</v>
+        <v>-4.761407375335693</v>
       </c>
       <c r="B96">
-        <v>130.1016845703125</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C96">
-        <v>181.0228271484375</v>
+        <v>176.3828887939453</v>
       </c>
       <c r="D96">
-        <v>4.100358486175537</v>
+        <v>4.028372287750244</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>-4.766801834106445</v>
+        <v>-4.761468887329102</v>
       </c>
       <c r="B97">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C97">
-        <v>181.0211181640625</v>
+        <v>176.3803253173828</v>
       </c>
       <c r="D97">
-        <v>4.100279808044434</v>
+        <v>4.027944087982178</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>-4.76685905456543</v>
+        <v>-4.761521339416504</v>
       </c>
       <c r="B98">
-        <v>130.1016693115234</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C98">
-        <v>181.02001953125</v>
+        <v>176.378662109375</v>
       </c>
       <c r="D98">
-        <v>4.100221633911133</v>
+        <v>4.027575969696045</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>-4.766933441162109</v>
+        <v>-4.761578559875488</v>
       </c>
       <c r="B99">
-        <v>130.1016845703125</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C99">
-        <v>181.0240325927734</v>
+        <v>176.3779754638672</v>
       </c>
       <c r="D99">
-        <v>4.09996509552002</v>
+        <v>4.027156352996826</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>-4.76701545715332</v>
+        <v>-4.761639595031738</v>
       </c>
       <c r="B100">
-        <v>130.1016845703125</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C100">
-        <v>181.0282440185547</v>
+        <v>176.3766174316406</v>
       </c>
       <c r="D100">
-        <v>4.099661827087402</v>
+        <v>4.02670955657959</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>-4.767101764678955</v>
+        <v>-4.761703968048096</v>
       </c>
       <c r="B101">
-        <v>130.1016845703125</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C101">
-        <v>181.0318450927734</v>
+        <v>176.3749847412109</v>
       </c>
       <c r="D101">
-        <v>4.099361896514893</v>
+        <v>4.026241302490234</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>-4.767191410064697</v>
+        <v>-4.761773109436035</v>
       </c>
       <c r="B102">
-        <v>130.1016845703125</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C102">
-        <v>181.0346832275391</v>
+        <v>176.3731079101562</v>
       </c>
       <c r="D102">
-        <v>4.099087715148926</v>
+        <v>4.025739192962646</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>-4.76728343963623</v>
+        <v>-4.76184606552124</v>
       </c>
       <c r="B103">
-        <v>130.1016845703125</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C103">
-        <v>181.0370788574219</v>
+        <v>176.3711395263672</v>
       </c>
       <c r="D103">
-        <v>4.098833560943604</v>
+        <v>4.025212287902832</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>-4.767374992370605</v>
+        <v>-4.761919498443604</v>
       </c>
       <c r="B104">
-        <v>130.1016845703125</v>
+        <v>130.1002960205078</v>
       </c>
       <c r="C104">
-        <v>181.0394897460938</v>
+        <v>176.3692016601562</v>
       </c>
       <c r="D104">
-        <v>4.098579406738281</v>
+        <v>4.024685382843018</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>-4.767467021942139</v>
+        <v>-4.761992454528809</v>
       </c>
       <c r="B105">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C105">
-        <v>181.0419158935547</v>
+        <v>176.3672485351562</v>
       </c>
       <c r="D105">
-        <v>4.098324775695801</v>
+        <v>4.024158954620361</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>-4.767535209655762</v>
+        <v>-4.762053966522217</v>
       </c>
       <c r="B106">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C106">
-        <v>181.0402679443359</v>
+        <v>176.3647003173828</v>
       </c>
       <c r="D106">
-        <v>4.098246574401855</v>
+        <v>4.023730278015137</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>-4.767592906951904</v>
+        <v>-4.762106418609619</v>
       </c>
       <c r="B107">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C107">
-        <v>181.0392150878906</v>
+        <v>176.3630523681641</v>
       </c>
       <c r="D107">
-        <v>4.098187446594238</v>
+        <v>4.023362159729004</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>-4.767667293548584</v>
+        <v>-4.762163639068604</v>
       </c>
       <c r="B108">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C108">
-        <v>181.0432891845703</v>
+        <v>176.3623504638672</v>
       </c>
       <c r="D108">
-        <v>4.097930908203125</v>
+        <v>4.022942543029785</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>-4.767749309539795</v>
+        <v>-4.762224674224854</v>
       </c>
       <c r="B109">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C109">
-        <v>181.0475769042969</v>
+        <v>176.3610229492188</v>
       </c>
       <c r="D109">
-        <v>4.09762716293335</v>
+        <v>4.022495746612549</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>-4.76783561706543</v>
+        <v>-4.762289047241211</v>
       </c>
       <c r="B110">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C110">
-        <v>181.05126953125</v>
+        <v>176.359375</v>
       </c>
       <c r="D110">
-        <v>4.09732723236084</v>
+        <v>4.022027015686035</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>-4.767902374267578</v>
+        <v>-4.762346267700195</v>
       </c>
       <c r="B111">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C111">
-        <v>181.0500946044922</v>
+        <v>176.3569183349609</v>
       </c>
       <c r="D111">
-        <v>4.097228527069092</v>
+        <v>4.021622657775879</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>-4.767959594726562</v>
+        <v>-4.762398719787598</v>
       </c>
       <c r="B112">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C112">
-        <v>181.049072265625</v>
+        <v>176.3552551269531</v>
       </c>
       <c r="D112">
-        <v>4.097169876098633</v>
+        <v>4.021255016326904</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>-4.768033981323242</v>
+        <v>-4.76245641708374</v>
       </c>
       <c r="B113">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C113">
-        <v>181.0531921386719</v>
+        <v>176.3545532226562</v>
       </c>
       <c r="D113">
-        <v>4.096912860870361</v>
+        <v>4.020834445953369</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>-4.768116474151611</v>
+        <v>-4.76251745223999</v>
       </c>
       <c r="B114">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C114">
-        <v>181.0574951171875</v>
+        <v>176.3532257080078</v>
       </c>
       <c r="D114">
-        <v>4.096609115600586</v>
+        <v>4.020388126373291</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>-4.768179416656494</v>
+        <v>-4.762569904327393</v>
       </c>
       <c r="B115">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C115">
-        <v>181.05712890625</v>
+        <v>176.3510131835938</v>
       </c>
       <c r="D115">
-        <v>4.096484661102295</v>
+        <v>4.020017623901367</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>-4.768234729766846</v>
+        <v>-4.762618541717529</v>
       </c>
       <c r="B116">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C116">
-        <v>181.0565795898438</v>
+        <v>176.3494262695312</v>
       </c>
       <c r="D116">
-        <v>4.09640645980835</v>
+        <v>4.019674301147461</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>-4.768309116363525</v>
+        <v>-4.762675762176514</v>
       </c>
       <c r="B117">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C117">
-        <v>181.0607147216797</v>
+        <v>176.3487396240234</v>
       </c>
       <c r="D117">
-        <v>4.09614896774292</v>
+        <v>4.019253730773926</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>-4.768391609191895</v>
+        <v>-4.762736797332764</v>
       </c>
       <c r="B118">
-        <v>130.1016845703125</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C118">
-        <v>181.0650634765625</v>
+        <v>176.3473968505859</v>
       </c>
       <c r="D118">
-        <v>4.095845222473145</v>
+        <v>4.018807411193848</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>-4.768477916717529</v>
+        <v>-4.762801170349121</v>
       </c>
       <c r="B119">
-        <v>130.1016998291016</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C119">
-        <v>181.0688171386719</v>
+        <v>176.3457794189453</v>
       </c>
       <c r="D119">
-        <v>4.095544338226318</v>
+        <v>4.018338680267334</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>-4.768567562103271</v>
+        <v>-4.762870788574219</v>
       </c>
       <c r="B120">
-        <v>130.1016998291016</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C120">
-        <v>181.0718078613281</v>
+        <v>176.3439331054688</v>
       </c>
       <c r="D120">
-        <v>4.095270156860352</v>
+        <v>4.01783561706543</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>-4.768636226654053</v>
+        <v>-4.762931823730469</v>
       </c>
       <c r="B121">
-        <v>130.1016998291016</v>
+        <v>130.1002807617188</v>
       </c>
       <c r="C121">
-        <v>181.0702667236328</v>
+        <v>176.3414001464844</v>
       </c>
       <c r="D121">
-        <v>4.095191478729248</v>
+        <v>4.017407417297363</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>-4.770519733428955</v>
+        <v>-4.764238357543945</v>
       </c>
       <c r="B122">
-        <v>130.1018981933594</v>
+        <v>130.1004028320312</v>
       </c>
       <c r="C122">
-        <v>181.4253997802734</v>
+        <v>176.3323669433594</v>
       </c>
       <c r="D122">
-        <v>4.067880153656006</v>
+        <v>3.998615264892578</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>-4.771513938903809</v>
+        <v>-4.765329837799072</v>
       </c>
       <c r="B123">
-        <v>130.1019287109375</v>
+        <v>130.1004638671875</v>
       </c>
       <c r="C123">
-        <v>181.4168548583984</v>
+        <v>176.247314453125</v>
       </c>
       <c r="D123">
-        <v>4.056624412536621</v>
+        <v>3.98459005355835</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>-4.771982192993164</v>
+        <v>-4.76617956161499</v>
       </c>
       <c r="B124">
-        <v>130.1018981933594</v>
+        <v>130.1004943847656</v>
       </c>
       <c r="C124">
-        <v>181.3409729003906</v>
+        <v>176.2065734863281</v>
       </c>
       <c r="D124">
-        <v>4.052731037139893</v>
+        <v>3.974202394485474</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>-4.772204399108887</v>
+        <v>-4.766823291778564</v>
       </c>
       <c r="B125">
-        <v>130.1018829345703</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C125">
-        <v>181.28125</v>
+        <v>176.1758880615234</v>
       </c>
       <c r="D125">
-        <v>4.051314353942871</v>
+        <v>3.966612339019775</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>-4.772296905517578</v>
+        <v>-4.767289638519287</v>
       </c>
       <c r="B126">
-        <v>130.1018676757812</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C126">
-        <v>181.2484283447266</v>
+        <v>176.1492156982422</v>
       </c>
       <c r="D126">
-        <v>4.05071496963501</v>
+        <v>3.961143970489502</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>-4.772354602813721</v>
+        <v>-4.767343044281006</v>
       </c>
       <c r="B127">
-        <v>130.1018676757812</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C127">
-        <v>181.2475128173828</v>
+        <v>176.1474456787109</v>
       </c>
       <c r="D127">
-        <v>4.050670146942139</v>
+        <v>3.960776567459106</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>-4.772429466247559</v>
+        <v>-4.767400741577148</v>
       </c>
       <c r="B128">
-        <v>130.1018676757812</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C128">
-        <v>181.2518310546875</v>
+        <v>176.146728515625</v>
       </c>
       <c r="D128">
-        <v>4.050423622131348</v>
+        <v>3.960356712341309</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>-4.772512912750244</v>
+        <v>-4.767462730407715</v>
       </c>
       <c r="B129">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C129">
-        <v>181.2563629150391</v>
+        <v>176.1453399658203</v>
       </c>
       <c r="D129">
-        <v>4.050130367279053</v>
+        <v>3.959909677505493</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>-4.772600173950195</v>
+        <v>-4.767527103424072</v>
       </c>
       <c r="B130">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C130">
-        <v>181.2602844238281</v>
+        <v>176.1436462402344</v>
       </c>
       <c r="D130">
-        <v>4.049842357635498</v>
+        <v>3.959441900253296</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>-4.772666931152344</v>
+        <v>-4.767585277557373</v>
       </c>
       <c r="B131">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C131">
-        <v>181.2592315673828</v>
+        <v>176.14111328125</v>
       </c>
       <c r="D131">
-        <v>4.049760341644287</v>
+        <v>3.959038496017456</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>-4.772724628448486</v>
+        <v>-4.767638206481934</v>
       </c>
       <c r="B132">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C132">
-        <v>181.2583618164062</v>
+        <v>176.1393280029297</v>
       </c>
       <c r="D132">
-        <v>4.049715518951416</v>
+        <v>3.958671569824219</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>-4.772799491882324</v>
+        <v>-4.767696380615234</v>
       </c>
       <c r="B133">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C133">
-        <v>181.2627258300781</v>
+        <v>176.1386260986328</v>
       </c>
       <c r="D133">
-        <v>4.049468517303467</v>
+        <v>3.958250999450684</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>-4.77288293838501</v>
+        <v>-4.767757892608643</v>
       </c>
       <c r="B134">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C134">
-        <v>181.2672882080078</v>
+        <v>176.1372528076172</v>
       </c>
       <c r="D134">
-        <v>4.049175262451172</v>
+        <v>3.957804679870605</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>-4.772969722747803</v>
+        <v>-4.767822742462158</v>
       </c>
       <c r="B135">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C135">
-        <v>181.2712554931641</v>
+        <v>176.1355895996094</v>
       </c>
       <c r="D135">
-        <v>4.048887252807617</v>
+        <v>3.95733642578125</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>-4.773036956787109</v>
+        <v>-4.767880439758301</v>
       </c>
       <c r="B136">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C136">
-        <v>181.2702484130859</v>
+        <v>176.1330261230469</v>
       </c>
       <c r="D136">
-        <v>4.048804759979248</v>
+        <v>3.95693302154541</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>-4.773094654083252</v>
+        <v>-4.76793384552002</v>
       </c>
       <c r="B137">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C137">
-        <v>181.2693786621094</v>
+        <v>176.1312713623047</v>
       </c>
       <c r="D137">
-        <v>4.048759937286377</v>
+        <v>3.956565856933594</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>-4.773169994354248</v>
+        <v>-4.76799201965332</v>
       </c>
       <c r="B138">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C138">
-        <v>181.2737884521484</v>
+        <v>176.1305541992188</v>
       </c>
       <c r="D138">
-        <v>4.04851245880127</v>
+        <v>3.956145524978638</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>-4.773252964019775</v>
+        <v>-4.768053531646729</v>
       </c>
       <c r="B139">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C139">
-        <v>181.2784118652344</v>
+        <v>176.1291809082031</v>
       </c>
       <c r="D139">
-        <v>4.048219203948975</v>
+        <v>3.955698728561401</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>-4.773340225219727</v>
+        <v>-4.768117904663086</v>
       </c>
       <c r="B140">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C140">
-        <v>181.2823791503906</v>
+        <v>176.1275177001953</v>
       </c>
       <c r="D140">
-        <v>4.04793119430542</v>
+        <v>3.955230474472046</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>-4.773407459259033</v>
+        <v>-4.768176078796387</v>
       </c>
       <c r="B141">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C141">
-        <v>181.2814178466797</v>
+        <v>176.1249542236328</v>
       </c>
       <c r="D141">
-        <v>4.047848224639893</v>
+        <v>3.954827547073364</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>-4.773465156555176</v>
+        <v>-4.768229007720947</v>
       </c>
       <c r="B142">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C142">
-        <v>181.2806091308594</v>
+        <v>176.1231842041016</v>
       </c>
       <c r="D142">
-        <v>4.04780387878418</v>
+        <v>3.95445990562439</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>-4.773540019989014</v>
+        <v>-4.768287181854248</v>
       </c>
       <c r="B143">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C143">
-        <v>181.2850341796875</v>
+        <v>176.1225128173828</v>
       </c>
       <c r="D143">
-        <v>4.047555923461914</v>
+        <v>3.954039812088013</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>-4.773623466491699</v>
+        <v>-4.768348693847656</v>
       </c>
       <c r="B144">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C144">
-        <v>181.2896881103516</v>
+        <v>176.1211395263672</v>
       </c>
       <c r="D144">
-        <v>4.047262191772461</v>
+        <v>3.953593015670776</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>-4.773710250854492</v>
+        <v>-4.768413543701172</v>
       </c>
       <c r="B145">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C145">
-        <v>181.2937316894531</v>
+        <v>176.1194763183594</v>
       </c>
       <c r="D145">
-        <v>4.046974182128906</v>
+        <v>3.953124523162842</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>-4.773777484893799</v>
+        <v>-4.768471717834473</v>
       </c>
       <c r="B146">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C146">
-        <v>181.2927856445312</v>
+        <v>176.116943359375</v>
       </c>
       <c r="D146">
-        <v>4.046891212463379</v>
+        <v>3.95272159576416</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>-4.773835182189941</v>
+        <v>-4.768524646759033</v>
       </c>
       <c r="B147">
-        <v>130.1018829345703</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C147">
-        <v>181.2919769287109</v>
+        <v>176.1151580810547</v>
       </c>
       <c r="D147">
-        <v>4.046846389770508</v>
+        <v>3.952354192733765</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>-4.773910522460938</v>
+        <v>-4.768582820892334</v>
       </c>
       <c r="B148">
-        <v>130.1018981933594</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C148">
-        <v>181.2964477539062</v>
+        <v>176.1144714355469</v>
       </c>
       <c r="D148">
-        <v>4.046598434448242</v>
+        <v>3.951933622360229</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>-4.773993492126465</v>
+        <v>-4.768644332885742</v>
       </c>
       <c r="B149">
-        <v>130.1018981933594</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C149">
-        <v>181.3011474609375</v>
+        <v>176.1131286621094</v>
       </c>
       <c r="D149">
-        <v>4.046304702758789</v>
+        <v>3.951486825942993</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>-4.774080753326416</v>
+        <v>-4.768709182739258</v>
       </c>
       <c r="B150">
-        <v>130.1018981933594</v>
+        <v>130.1005249023438</v>
       </c>
       <c r="C150">
-        <v>181.3052215576172</v>
+        <v>176.1114654541016</v>
       </c>
       <c r="D150">
-        <v>4.046015739440918</v>
+        <v>3.951018333435059</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>-4.774147987365723</v>
+        <v>-4.768767356872559</v>
       </c>
       <c r="B151">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C151">
-        <v>181.3043212890625</v>
+        <v>176.1089172363281</v>
       </c>
       <c r="D151">
-        <v>4.045933246612549</v>
+        <v>3.950615406036377</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>-4.774205684661865</v>
+        <v>-4.768820285797119</v>
       </c>
       <c r="B152">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C152">
-        <v>181.3035430908203</v>
+        <v>176.1071624755859</v>
       </c>
       <c r="D152">
-        <v>4.045888423919678</v>
+        <v>3.950248003005981</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>-4.774280548095703</v>
+        <v>-4.768877983093262</v>
       </c>
       <c r="B153">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C153">
-        <v>181.3080596923828</v>
+        <v>176.1064758300781</v>
       </c>
       <c r="D153">
-        <v>4.045639991760254</v>
+        <v>3.949827432632446</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>-4.774363994598389</v>
+        <v>-4.768939971923828</v>
       </c>
       <c r="B154">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C154">
-        <v>181.3127899169922</v>
+        <v>176.1051330566406</v>
       </c>
       <c r="D154">
-        <v>4.045346260070801</v>
+        <v>3.949380397796631</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>-4.77445125579834</v>
+        <v>-4.769004821777344</v>
       </c>
       <c r="B155">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C155">
-        <v>181.3169097900391</v>
+        <v>176.1034698486328</v>
       </c>
       <c r="D155">
-        <v>4.04505729675293</v>
+        <v>3.948912143707275</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>-4.774518489837646</v>
+        <v>-4.769062995910645</v>
       </c>
       <c r="B156">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C156">
-        <v>181.3160400390625</v>
+        <v>176.1009216308594</v>
       </c>
       <c r="D156">
-        <v>4.044974327087402</v>
+        <v>3.948508977890015</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>-4.774575710296631</v>
+        <v>-4.769115924835205</v>
       </c>
       <c r="B157">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C157">
-        <v>181.3152923583984</v>
+        <v>176.0991821289062</v>
       </c>
       <c r="D157">
-        <v>4.044929504394531</v>
+        <v>3.948141574859619</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>-4.774651050567627</v>
+        <v>-4.769174098968506</v>
       </c>
       <c r="B158">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C158">
-        <v>181.3198394775391</v>
+        <v>176.0984802246094</v>
       </c>
       <c r="D158">
-        <v>4.044680595397949</v>
+        <v>3.947721004486084</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>-4.774734497070312</v>
+        <v>-4.769235610961914</v>
       </c>
       <c r="B159">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C159">
-        <v>181.3246002197266</v>
+        <v>176.0971527099609</v>
       </c>
       <c r="D159">
-        <v>4.044386386871338</v>
+        <v>3.947273969650269</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>-4.774821758270264</v>
+        <v>-4.76930046081543</v>
       </c>
       <c r="B160">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C160">
-        <v>181.3287658691406</v>
+        <v>176.0955047607422</v>
       </c>
       <c r="D160">
-        <v>4.044097423553467</v>
+        <v>3.946805477142334</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>-4.774888515472412</v>
+        <v>-4.76935863494873</v>
       </c>
       <c r="B161">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C161">
-        <v>181.3279266357422</v>
+        <v>176.0929412841797</v>
       </c>
       <c r="D161">
-        <v>4.044014453887939</v>
+        <v>3.946402549743652</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>-4.774946212768555</v>
+        <v>-4.769411563873291</v>
       </c>
       <c r="B162">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C162">
-        <v>181.3272247314453</v>
+        <v>176.0912017822266</v>
       </c>
       <c r="D162">
-        <v>4.043969631195068</v>
+        <v>3.946034908294678</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>-4.775021553039551</v>
+        <v>-4.769469738006592</v>
       </c>
       <c r="B163">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C163">
-        <v>181.3318023681641</v>
+        <v>176.0905303955078</v>
       </c>
       <c r="D163">
-        <v>4.043720722198486</v>
+        <v>3.945614337921143</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>-4.775104999542236</v>
+        <v>-4.76953125</v>
       </c>
       <c r="B164">
-        <v>130.1018981933594</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C164">
-        <v>181.3365936279297</v>
+        <v>176.0891876220703</v>
       </c>
       <c r="D164">
-        <v>4.043426036834717</v>
+        <v>3.945167541503906</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>-4.775192260742188</v>
+        <v>-4.769596099853516</v>
       </c>
       <c r="B165">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C165">
-        <v>181.3408203125</v>
+        <v>176.0875549316406</v>
       </c>
       <c r="D165">
-        <v>4.043137073516846</v>
+        <v>3.944698572158813</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>-4.775259017944336</v>
+        <v>-4.769654273986816</v>
       </c>
       <c r="B166">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C166">
-        <v>181.3399963378906</v>
+        <v>176.0850067138672</v>
       </c>
       <c r="D166">
-        <v>4.04305362701416</v>
+        <v>3.944295644760132</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>-4.775316715240479</v>
+        <v>-4.769707202911377</v>
       </c>
       <c r="B167">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C167">
-        <v>181.3393249511719</v>
+        <v>176.083251953125</v>
       </c>
       <c r="D167">
-        <v>4.043008804321289</v>
+        <v>3.943928480148315</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>-4.775392055511475</v>
+        <v>-4.769765377044678</v>
       </c>
       <c r="B168">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C168">
-        <v>181.3439636230469</v>
+        <v>176.0825958251953</v>
       </c>
       <c r="D168">
-        <v>4.042759895324707</v>
+        <v>3.943507432937622</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>-4.77547550201416</v>
+        <v>-4.769827365875244</v>
       </c>
       <c r="B169">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C169">
-        <v>181.3488006591797</v>
+        <v>176.0812530517578</v>
       </c>
       <c r="D169">
-        <v>4.042465209960938</v>
+        <v>3.943060398101807</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>-4.775562763214111</v>
+        <v>-4.769891738891602</v>
       </c>
       <c r="B170">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C170">
-        <v>181.3530426025391</v>
+        <v>176.0796356201172</v>
       </c>
       <c r="D170">
-        <v>4.042175769805908</v>
+        <v>3.942591905593872</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>-4.775629997253418</v>
+        <v>-4.769949913024902</v>
       </c>
       <c r="B171">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C171">
-        <v>181.3522644042969</v>
+        <v>176.0771026611328</v>
       </c>
       <c r="D171">
-        <v>4.042092323303223</v>
+        <v>3.94218897819519</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>-4.775687217712402</v>
+        <v>-4.770002841949463</v>
       </c>
       <c r="B172">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C172">
-        <v>181.3516082763672</v>
+        <v>176.0753326416016</v>
       </c>
       <c r="D172">
-        <v>4.042047023773193</v>
+        <v>3.941821336746216</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>-4.775762557983398</v>
+        <v>-4.770061016082764</v>
       </c>
       <c r="B173">
-        <v>130.1019134521484</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C173">
-        <v>181.3562774658203</v>
+        <v>176.0746765136719</v>
       </c>
       <c r="D173">
-        <v>4.041797637939453</v>
+        <v>3.941400766372681</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>-4.775846004486084</v>
+        <v>-4.77012300491333</v>
       </c>
       <c r="B174">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C174">
-        <v>181.3611602783203</v>
+        <v>176.0733489990234</v>
       </c>
       <c r="D174">
-        <v>4.041502952575684</v>
+        <v>3.940953493118286</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>-4.775933265686035</v>
+        <v>-4.770187854766846</v>
       </c>
       <c r="B175">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C175">
-        <v>181.3654479980469</v>
+        <v>176.0717315673828</v>
       </c>
       <c r="D175">
-        <v>4.041213035583496</v>
+        <v>3.940484762191772</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>-4.776000499725342</v>
+        <v>-4.770246028900146</v>
       </c>
       <c r="B176">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C176">
-        <v>181.3647155761719</v>
+        <v>176.0691833496094</v>
       </c>
       <c r="D176">
-        <v>4.041129589080811</v>
+        <v>3.940081596374512</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>-4.776057720184326</v>
+        <v>-4.770298957824707</v>
       </c>
       <c r="B177">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C177">
-        <v>181.3640899658203</v>
+        <v>176.0674438476562</v>
       </c>
       <c r="D177">
-        <v>4.041084289550781</v>
+        <v>3.939714193344116</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>-4.776133060455322</v>
+        <v>-4.77035665512085</v>
       </c>
       <c r="B178">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C178">
-        <v>181.3687896728516</v>
+        <v>176.0667877197266</v>
       </c>
       <c r="D178">
-        <v>4.040834903717041</v>
+        <v>3.939293384552002</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>-4.776216506958008</v>
+        <v>-4.770419120788574</v>
       </c>
       <c r="B179">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C179">
-        <v>181.3737030029297</v>
+        <v>176.0654754638672</v>
       </c>
       <c r="D179">
-        <v>4.040539741516113</v>
+        <v>3.938846349716187</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>-4.776303768157959</v>
+        <v>-4.770483493804932</v>
       </c>
       <c r="B180">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C180">
-        <v>181.3780364990234</v>
+        <v>176.0638580322266</v>
       </c>
       <c r="D180">
-        <v>4.040250301361084</v>
+        <v>3.938377618789673</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>-4.776394367218018</v>
+        <v>-4.770553588867188</v>
       </c>
       <c r="B181">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C181">
-        <v>181.3816223144531</v>
+        <v>176.06201171875</v>
       </c>
       <c r="D181">
-        <v>4.039988040924072</v>
+        <v>3.937874794006348</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>-4.776463508605957</v>
+        <v>-4.770615577697754</v>
       </c>
       <c r="B182">
-        <v>130.1019287109375</v>
+        <v>130.1005096435547</v>
       </c>
       <c r="C182">
-        <v>181.3805236816406</v>
+        <v>176.0593414306641</v>
       </c>
       <c r="D182">
-        <v>4.039925575256348</v>
+        <v>3.937447547912598</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>-4.772994518280029</v>
+        <v>-4.768057346343994</v>
       </c>
       <c r="B183">
-        <v>130.1014099121094</v>
+        <v>130.1002197265625</v>
       </c>
       <c r="C183">
-        <v>181.7538299560547</v>
+        <v>176.9514465332031</v>
       </c>
       <c r="D183">
-        <v>4.092076778411865</v>
+        <v>3.97736644744873</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>-4.773354530334473</v>
+        <v>-4.767437934875488</v>
       </c>
       <c r="B184">
-        <v>130.1016235351562</v>
+        <v>130.1003112792969</v>
       </c>
       <c r="C184">
-        <v>181.9849548339844</v>
+        <v>177.3791198730469</v>
       </c>
       <c r="D184">
-        <v>4.081259727478027</v>
+        <v>3.98216700553894</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>-4.77357816696167</v>
+        <v>-4.767018795013428</v>
       </c>
       <c r="B185">
-        <v>130.1016693115234</v>
+        <v>130.1002197265625</v>
       </c>
       <c r="C185">
-        <v>181.6947631835938</v>
+        <v>177.1004791259766</v>
       </c>
       <c r="D185">
-        <v>4.079813003540039</v>
+        <v>3.988571166992188</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>-4.772508144378662</v>
+        <v>-4.765868186950684</v>
       </c>
       <c r="B186">
-        <v>130.1014862060547</v>
+        <v>130.1000671386719</v>
       </c>
       <c r="C186">
-        <v>181.9609222412109</v>
+        <v>177.4428100585938</v>
       </c>
       <c r="D186">
-        <v>4.09765625</v>
+        <v>4.006742477416992</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>-4.772398948669434</v>
+        <v>-4.76521635055542</v>
       </c>
       <c r="B187">
-        <v>130.1014709472656</v>
+        <v>130.1000213623047</v>
       </c>
       <c r="C187">
-        <v>182.3608551025391</v>
+        <v>177.9476776123047</v>
       </c>
       <c r="D187">
-        <v>4.098917484283447</v>
+        <v>4.015688896179199</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>-4.772717475891113</v>
+        <v>-4.765288352966309</v>
       </c>
       <c r="B188">
-        <v>130.1015319824219</v>
+        <v>130.10009765625</v>
       </c>
       <c r="C188">
-        <v>182.4768524169922</v>
+        <v>178.0211181640625</v>
       </c>
       <c r="D188">
-        <v>4.093925476074219</v>
+        <v>4.013982772827148</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>-4.77330493927002</v>
+        <v>-4.765602588653564</v>
       </c>
       <c r="B189">
-        <v>130.1015930175781</v>
+        <v>130.10009765625</v>
       </c>
       <c r="C189">
-        <v>182.3172607421875</v>
+        <v>177.9313354492188</v>
       </c>
       <c r="D189">
-        <v>4.087831497192383</v>
+        <v>4.010409355163574</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>-4.7736496925354</v>
+        <v>-4.765952110290527</v>
       </c>
       <c r="B190">
-        <v>130.1016082763672</v>
+        <v>130.1000518798828</v>
       </c>
       <c r="C190">
-        <v>182.0553436279297</v>
+        <v>177.6895446777344</v>
       </c>
       <c r="D190">
-        <v>4.085845947265625</v>
+        <v>4.006875514984131</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>-4.773914813995361</v>
+        <v>-4.766356468200684</v>
       </c>
       <c r="B191">
-        <v>130.1016235351562</v>
+        <v>130.1000671386719</v>
       </c>
       <c r="C191">
-        <v>181.8493957519531</v>
+        <v>177.3380126953125</v>
       </c>
       <c r="D191">
-        <v>4.083574295043945</v>
+        <v>4.001489162445068</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>-4.774135589599609</v>
+        <v>-4.76674222946167</v>
       </c>
       <c r="B192">
-        <v>130.1016693115234</v>
+        <v>130.10009765625</v>
       </c>
       <c r="C192">
-        <v>181.6415405273438</v>
+        <v>176.9849548339844</v>
       </c>
       <c r="D192">
-        <v>4.081467628479004</v>
+        <v>3.996088027954102</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>-4.773558139801025</v>
+        <v>-4.766458511352539</v>
       </c>
       <c r="B193">
-        <v>130.1015472412109</v>
+        <v>130.1000671386719</v>
       </c>
       <c r="C193">
-        <v>181.8275299072266</v>
+        <v>177.1070556640625</v>
       </c>
       <c r="D193">
-        <v>4.09150505065918</v>
+        <v>4.00154447555542</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>-4.77411937713623</v>
+        <v>-4.766756057739258</v>
       </c>
       <c r="B194">
-        <v>130.1016540527344</v>
+        <v>130.1001281738281</v>
       </c>
       <c r="C194">
-        <v>181.8856811523438</v>
+        <v>177.1381225585938</v>
       </c>
       <c r="D194">
-        <v>4.083151817321777</v>
+        <v>3.996606826782227</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>-4.774573802947998</v>
+        <v>-4.767097473144531</v>
       </c>
       <c r="B195">
-        <v>130.1016845703125</v>
+        <v>130.1001281738281</v>
       </c>
       <c r="C195">
-        <v>181.7003173828125</v>
+        <v>176.9179382324219</v>
       </c>
       <c r="D195">
-        <v>4.079181671142578</v>
+        <v>3.992711544036865</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>-4.774754047393799</v>
+        <v>-4.767348289489746</v>
       </c>
       <c r="B196">
-        <v>130.1016845703125</v>
+        <v>130.1001281738281</v>
       </c>
       <c r="C196">
-        <v>181.5639801025391</v>
+        <v>176.7498474121094</v>
       </c>
       <c r="D196">
-        <v>4.079294681549072</v>
+        <v>3.990351676940918</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>-4.774389743804932</v>
+        <v>-4.767158985137939</v>
       </c>
       <c r="B197">
-        <v>130.1015930175781</v>
+        <v>130.1000671386719</v>
       </c>
       <c r="C197">
-        <v>181.7352905273438</v>
+        <v>176.9307556152344</v>
       </c>
       <c r="D197">
-        <v>4.087145805358887</v>
+        <v>3.994997024536133</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>-4.775164127349854</v>
+        <v>-4.767679214477539</v>
       </c>
       <c r="B198">
-        <v>130.1017303466797</v>
+        <v>130.1001739501953</v>
       </c>
       <c r="C198">
-        <v>181.6703186035156</v>
+        <v>176.7816925048828</v>
       </c>
       <c r="D198">
-        <v>4.075991630554199</v>
+        <v>3.98667311668396</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>-4.774281024932861</v>
+        <v>-4.767059326171875</v>
       </c>
       <c r="B199">
-        <v>130.1015319824219</v>
+        <v>130.1000518798828</v>
       </c>
       <c r="C199">
-        <v>181.9746856689453</v>
+        <v>177.1507263183594</v>
       </c>
       <c r="D199">
-        <v>4.092761993408203</v>
+        <v>3.998861074447632</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>-4.775164127349854</v>
+        <v>-4.767471313476562</v>
       </c>
       <c r="B200">
-        <v>130.1016693115234</v>
+        <v>130.1001281738281</v>
       </c>
       <c r="C200">
-        <v>182.0639343261719</v>
+        <v>177.2966003417969</v>
       </c>
       <c r="D200">
-        <v>4.079806327819824</v>
+        <v>3.992135286331177</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>-4.775418758392334</v>
+        <v>-4.767626762390137</v>
       </c>
       <c r="B201">
-        <v>130.1016235351562</v>
+        <v>130.1000671386719</v>
       </c>
       <c r="C201">
-        <v>181.9656372070312</v>
+        <v>177.2020263671875</v>
       </c>
       <c r="D201">
-        <v>4.080565929412842</v>
+        <v>3.992471694946289</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>-4.775949478149414</v>
+        <v>-4.768080711364746</v>
       </c>
       <c r="B202">
-        <v>130.1016845703125</v>
+        <v>130.10009765625</v>
       </c>
       <c r="C202">
-        <v>181.8099517822266</v>
+        <v>176.9903259277344</v>
       </c>
       <c r="D202">
-        <v>4.075399398803711</v>
+        <v>3.986701250076294</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>-4.77617883682251</v>
+        <v>-4.768385887145996</v>
       </c>
       <c r="B203">
-        <v>130.1016693115234</v>
+        <v>130.1000518798828</v>
       </c>
       <c r="C203">
-        <v>181.6372833251953</v>
+        <v>176.7971496582031</v>
       </c>
       <c r="D203">
-        <v>4.07580041885376</v>
+        <v>3.984339952468872</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>-4.776180267333984</v>
+        <v>-4.768537998199463</v>
       </c>
       <c r="B204">
-        <v>130.1016693115234</v>
+        <v>130.1000823974609</v>
       </c>
       <c r="C204">
-        <v>181.6644592285156</v>
+        <v>176.7008514404297</v>
       </c>
       <c r="D204">
-        <v>4.07769250869751</v>
+        <v>3.982927083969116</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>-4.776401042938232</v>
+        <v>-4.768692016601562</v>
       </c>
       <c r="B205">
-        <v>130.1016693115234</v>
+        <v>130.1000823974609</v>
       </c>
       <c r="C205">
-        <v>181.7362213134766</v>
+        <v>176.7525024414062</v>
       </c>
       <c r="D205">
-        <v>4.076921463012695</v>
+        <v>3.981921434402466</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>-4.776968955993652</v>
+        <v>-4.769125938415527</v>
       </c>
       <c r="B206">
-        <v>130.1017303466797</v>
+        <v>130.1001281738281</v>
       </c>
       <c r="C206">
-        <v>181.6236724853516</v>
+        <v>176.5848388671875</v>
       </c>
       <c r="D206">
-        <v>4.070958614349365</v>
+        <v>3.976325035095215</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>-4.777260303497314</v>
+        <v>-4.769440650939941</v>
       </c>
       <c r="B207">
-        <v>130.1017456054688</v>
+        <v>130.1001129150391</v>
       </c>
       <c r="C207">
-        <v>181.4842834472656</v>
+        <v>176.4055480957031</v>
       </c>
       <c r="D207">
-        <v>4.070390224456787</v>
+        <v>3.973538398742676</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>-4.777482032775879</v>
+        <v>-4.769716262817383</v>
       </c>
       <c r="B208">
-        <v>130.1017456054688</v>
+        <v>130.1001129150391</v>
       </c>
       <c r="C208">
-        <v>181.4292297363281</v>
+        <v>176.298583984375</v>
       </c>
       <c r="D208">
-        <v>4.07024621963501</v>
+        <v>3.971058130264282</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>-4.777763843536377</v>
+        <v>-4.769992351531982</v>
       </c>
       <c r="B209">
-        <v>130.1017608642578</v>
+        <v>130.1001281738281</v>
       </c>
       <c r="C209">
-        <v>181.4314270019531</v>
+        <v>176.2227020263672</v>
       </c>
       <c r="D209">
-        <v>4.069178104400635</v>
+        <v>3.96845269203186</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>-4.777875423431396</v>
+        <v>-4.770107269287109</v>
       </c>
       <c r="B210">
-        <v>130.1017456054688</v>
+        <v>130.1001281738281</v>
       </c>
       <c r="C210">
-        <v>181.5173645019531</v>
+        <v>176.2664947509766</v>
       </c>
       <c r="D210">
-        <v>4.070655822753906</v>
+        <v>3.968368530273438</v>
       </c>
     </row>
   </sheetData>
